--- a/acs/new_elections.xlsx
+++ b/acs/new_elections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kguan17/Documents/GitHub/RA-Work/acs/new_elections/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\RA Work\acs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F180AE5C-BD99-2A41-B33E-7F3652C5A336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C779D1E4-E622-4659-AE42-62C8869ACE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{C1E7F2D1-2910-E847-8420-6063A63537EE}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21555" windowHeight="11385" xr2:uid="{C1E7F2D1-2910-E847-8420-6063A63537EE}"/>
   </bookViews>
   <sheets>
     <sheet name="missing_added" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="166">
   <si>
     <t>filename</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>Treasurer</t>
+  </si>
+  <si>
+    <t>takoma_park_wards_2022.csv</t>
   </si>
 </sst>
 </file>
@@ -1016,12 +1019,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1404,13 +1406,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7911D7E-3E14-9C43-AFF2-7CBF02CBCB0E}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1456,11 +1458,11 @@
       <c r="G2" s="1">
         <v>2022</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,11 +1482,11 @@
       <c r="G3" s="1">
         <v>2022</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1504,11 +1506,11 @@
       <c r="G4" s="1">
         <v>2022</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1528,11 +1530,11 @@
       <c r="G5" s="1">
         <v>2022</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1552,11 +1554,11 @@
       <c r="G6" s="1">
         <v>2022</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1576,11 +1578,11 @@
       <c r="G7" s="1">
         <v>2022</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1600,11 +1602,11 @@
       <c r="G8" s="1">
         <v>2022</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1626,11 +1628,11 @@
       <c r="G9" s="1">
         <v>2023</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1652,11 +1654,11 @@
       <c r="G10" s="1">
         <v>2017</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -1678,11 +1680,11 @@
       <c r="G11" s="1">
         <v>2023</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -1704,11 +1706,11 @@
       <c r="G12" s="1">
         <v>2023</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -1730,11 +1732,11 @@
       <c r="G13" s="1">
         <v>2023</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -1756,11 +1758,11 @@
       <c r="G14" s="1">
         <v>2023</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -1782,11 +1784,11 @@
       <c r="G15" s="1">
         <v>2023</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1808,11 +1810,11 @@
       <c r="G16" s="1">
         <v>2023</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1834,11 +1836,11 @@
       <c r="G17" s="1">
         <v>2023</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -1860,11 +1862,11 @@
       <c r="G18" s="1">
         <v>2023</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1886,11 +1888,11 @@
       <c r="G19" s="1">
         <v>2021</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1912,11 +1914,11 @@
       <c r="G20" s="1">
         <v>2009</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -1938,11 +1940,11 @@
       <c r="G21" s="1">
         <v>2010</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -1964,11 +1966,11 @@
       <c r="G22" s="1">
         <v>2010</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -1990,11 +1992,11 @@
       <c r="G23" s="1">
         <v>2018</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -2016,37 +2018,34 @@
       <c r="G24" s="1">
         <v>2010</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2">
         <v>1</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="F25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="2">
         <v>2021</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
@@ -2068,37 +2067,34 @@
       <c r="G26" s="1">
         <v>2016</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2">
         <v>4</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="F27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="2">
         <v>2021</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -2120,11 +2116,11 @@
       <c r="G28" s="1">
         <v>2020</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>78</v>
       </c>
@@ -2146,11 +2142,11 @@
       <c r="G29" s="1">
         <v>2016</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -2172,11 +2168,11 @@
       <c r="G30" s="1">
         <v>2022</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
@@ -2198,11 +2194,11 @@
       <c r="G31" s="1">
         <v>2022</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>85</v>
       </c>
@@ -2224,11 +2220,11 @@
       <c r="G32" s="1">
         <v>2022</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>50</v>
       </c>
@@ -2250,9 +2246,8 @@
       <c r="G33" s="2">
         <v>2023</v>
       </c>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
@@ -2274,9 +2269,8 @@
       <c r="G34" s="2">
         <v>2023</v>
       </c>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -2298,9 +2292,8 @@
       <c r="G35" s="2">
         <v>2023</v>
       </c>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
@@ -2322,9 +2315,8 @@
       <c r="G36" s="2">
         <v>2023</v>
       </c>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
@@ -2344,9 +2336,8 @@
       <c r="G37" s="3">
         <v>2022</v>
       </c>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>86</v>
       </c>
@@ -2366,9 +2357,8 @@
       <c r="G38" s="3">
         <v>2022</v>
       </c>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>88</v>
       </c>
@@ -2388,9 +2378,8 @@
       <c r="G39" s="3">
         <v>2009</v>
       </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>90</v>
       </c>
@@ -2410,9 +2399,8 @@
       <c r="G40" s="3">
         <v>2017</v>
       </c>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>91</v>
       </c>
@@ -2432,9 +2420,8 @@
       <c r="G41" s="3">
         <v>2021</v>
       </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>92</v>
       </c>
@@ -2454,9 +2441,8 @@
       <c r="G42" s="3">
         <v>2013</v>
       </c>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>93</v>
       </c>
@@ -2476,9 +2462,8 @@
       <c r="G43" s="3">
         <v>2019</v>
       </c>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>95</v>
       </c>
@@ -2498,9 +2483,8 @@
       <c r="G44" s="3">
         <v>2016</v>
       </c>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>96</v>
       </c>
@@ -2520,9 +2504,8 @@
       <c r="G45" s="3">
         <v>2022</v>
       </c>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>98</v>
       </c>
@@ -2542,9 +2525,8 @@
       <c r="G46" s="3">
         <v>2014</v>
       </c>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>100</v>
       </c>
@@ -2564,9 +2546,8 @@
       <c r="G47" s="3">
         <v>2010</v>
       </c>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>101</v>
       </c>
@@ -2586,9 +2567,8 @@
       <c r="G48" s="3">
         <v>2019</v>
       </c>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>104</v>
       </c>
@@ -2608,9 +2588,8 @@
       <c r="G49" s="3">
         <v>2017</v>
       </c>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>105</v>
       </c>
@@ -2630,9 +2609,8 @@
       <c r="G50" s="3">
         <v>2005</v>
       </c>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>106</v>
       </c>
@@ -2652,9 +2630,8 @@
       <c r="G51" s="3">
         <v>2011</v>
       </c>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>107</v>
       </c>
@@ -2674,9 +2651,8 @@
       <c r="G52" s="3">
         <v>2023</v>
       </c>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>108</v>
       </c>
@@ -2696,9 +2672,8 @@
       <c r="G53" s="3">
         <v>2021</v>
       </c>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>111</v>
       </c>
@@ -2718,9 +2693,8 @@
       <c r="G54" s="3">
         <v>2009</v>
       </c>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>112</v>
       </c>
@@ -2740,9 +2714,8 @@
       <c r="G55" s="3">
         <v>2013</v>
       </c>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>113</v>
       </c>
@@ -2762,9 +2735,8 @@
       <c r="G56" s="3">
         <v>2007</v>
       </c>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>114</v>
       </c>
@@ -2784,9 +2756,8 @@
       <c r="G57" s="3">
         <v>2003</v>
       </c>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>115</v>
       </c>
@@ -2806,9 +2777,8 @@
       <c r="G58" s="3">
         <v>2001</v>
       </c>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>116</v>
       </c>
@@ -2828,9 +2798,8 @@
       <c r="G59" s="3">
         <v>2015</v>
       </c>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>117</v>
       </c>
@@ -2850,9 +2819,8 @@
       <c r="G60" s="3">
         <v>2019</v>
       </c>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>120</v>
       </c>
@@ -2872,9 +2840,8 @@
       <c r="G61" s="3">
         <v>2021</v>
       </c>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>122</v>
       </c>
@@ -2894,9 +2861,8 @@
       <c r="G62" s="3">
         <v>2019</v>
       </c>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>123</v>
       </c>
@@ -2916,9 +2882,8 @@
       <c r="G63" s="3">
         <v>2021</v>
       </c>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>125</v>
       </c>
@@ -2938,9 +2903,8 @@
       <c r="G64" s="3">
         <v>2021</v>
       </c>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>126</v>
       </c>
@@ -2960,9 +2924,8 @@
       <c r="G65" s="3">
         <v>2019</v>
       </c>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>128</v>
       </c>
@@ -2982,9 +2945,8 @@
       <c r="G66" s="3">
         <v>2019</v>
       </c>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>129</v>
       </c>
@@ -3004,9 +2966,8 @@
       <c r="G67" s="3">
         <v>2021</v>
       </c>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>131</v>
       </c>
@@ -3026,9 +2987,8 @@
       <c r="G68" s="3">
         <v>2021</v>
       </c>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>133</v>
       </c>
@@ -3048,9 +3008,8 @@
       <c r="G69" s="3">
         <v>2021</v>
       </c>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>135</v>
       </c>
@@ -3070,9 +3029,8 @@
       <c r="G70" s="3">
         <v>2019</v>
       </c>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>136</v>
       </c>
@@ -3092,9 +3050,8 @@
       <c r="G71" s="3">
         <v>2022</v>
       </c>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>139</v>
       </c>
@@ -3114,9 +3071,8 @@
       <c r="G72" s="3">
         <v>2023</v>
       </c>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>140</v>
       </c>
@@ -3136,9 +3092,8 @@
       <c r="G73" s="3">
         <v>2023</v>
       </c>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>144</v>
       </c>
@@ -3158,9 +3113,8 @@
       <c r="G74" s="3">
         <v>2024</v>
       </c>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>145</v>
       </c>
@@ -3180,9 +3134,8 @@
       <c r="G75" s="3">
         <v>2013</v>
       </c>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>146</v>
       </c>
@@ -3202,9 +3155,8 @@
       <c r="G76" s="3">
         <v>2009</v>
       </c>
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>147</v>
       </c>
@@ -3224,9 +3176,8 @@
       <c r="G77" s="3">
         <v>2017</v>
       </c>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>148</v>
       </c>
@@ -3246,9 +3197,8 @@
       <c r="G78" s="3">
         <v>2019</v>
       </c>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>150</v>
       </c>
@@ -3268,9 +3218,8 @@
       <c r="G79" s="3">
         <v>2018</v>
       </c>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>151</v>
       </c>
@@ -3290,9 +3239,8 @@
       <c r="G80" s="3">
         <v>2023</v>
       </c>
-      <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>63</v>
       </c>
@@ -3312,9 +3260,8 @@
       <c r="G81" s="3">
         <v>2022</v>
       </c>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>152</v>
       </c>
@@ -3334,9 +3281,8 @@
       <c r="G82" s="3">
         <v>2005</v>
       </c>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>154</v>
       </c>
@@ -3356,9 +3302,8 @@
       <c r="G83" s="3">
         <v>2015</v>
       </c>
-      <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>155</v>
       </c>
@@ -3378,9 +3323,8 @@
       <c r="G84" s="3">
         <v>2003</v>
       </c>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>156</v>
       </c>
@@ -3400,9 +3344,8 @@
       <c r="G85" s="3">
         <v>2019</v>
       </c>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>157</v>
       </c>
@@ -3422,9 +3365,8 @@
       <c r="G86" s="3">
         <v>2011</v>
       </c>
-      <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>158</v>
       </c>
@@ -3444,9 +3386,8 @@
       <c r="G87" s="3">
         <v>2007</v>
       </c>
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>159</v>
       </c>
@@ -3466,9 +3407,8 @@
       <c r="G88" s="3">
         <v>2013</v>
       </c>
-      <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>160</v>
       </c>
@@ -3488,9 +3428,8 @@
       <c r="G89" s="3">
         <v>2017</v>
       </c>
-      <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>161</v>
       </c>
@@ -3510,9 +3449,8 @@
       <c r="G90" s="3">
         <v>2019</v>
       </c>
-      <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>163</v>
       </c>
@@ -3532,7 +3470,6 @@
       <c r="G91" s="3">
         <v>2019</v>
       </c>
-      <c r="H91" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A33:H91">

--- a/acs/new_elections.xlsx
+++ b/acs/new_elections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\RA Work\acs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C779D1E4-E622-4659-AE42-62C8869ACE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8B2AF3-4706-43FD-B05A-9EC6EFE1B5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21555" windowHeight="11385" xr2:uid="{C1E7F2D1-2910-E847-8420-6063A63537EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1E7F2D1-2910-E847-8420-6063A63537EE}"/>
   </bookViews>
   <sheets>
     <sheet name="missing_added" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="167">
   <si>
     <t>filename</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>takoma_park_wards_2022.csv</t>
+  </si>
+  <si>
+    <t>st_louis_park_wards_2021.csv</t>
   </si>
 </sst>
 </file>
@@ -1406,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7911D7E-3E14-9C43-AFF2-7CBF02CBCB0E}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2023,26 +2026,29 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="1">
         <v>2021</v>
+      </c>
+      <c r="H25" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2072,26 +2078,29 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1">
         <v>4</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="F27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="1">
         <v>2021</v>
+      </c>
+      <c r="H27" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">

--- a/acs/new_elections.xlsx
+++ b/acs/new_elections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\RA Work\acs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kguan17/Documents/GitHub/RA-Work/acs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8B2AF3-4706-43FD-B05A-9EC6EFE1B5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9CE502-E665-AF48-996B-C6465B7BDFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1E7F2D1-2910-E847-8420-6063A63537EE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{C1E7F2D1-2910-E847-8420-6063A63537EE}"/>
   </bookViews>
   <sheets>
     <sheet name="missing_added" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="169">
   <si>
     <t>filename</t>
   </si>
@@ -521,6 +521,12 @@
   </si>
   <si>
     <t>st_louis_park_wards_2021.csv</t>
+  </si>
+  <si>
+    <t>bloomington_wards_2023.csv</t>
+  </si>
+  <si>
+    <t>minnetonka_wards_2023.csv</t>
   </si>
 </sst>
 </file>
@@ -663,7 +669,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -851,12 +857,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF787E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1022,11 +1022,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1409,13 +1408,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7911D7E-3E14-9C43-AFF2-7CBF02CBCB0E}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1465,7 +1464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1489,7 +1488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1513,7 +1512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1537,7 +1536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1609,7 +1608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1635,7 +1634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -1687,7 +1686,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -1713,7 +1712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -1765,7 +1764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -1791,7 +1790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1817,7 +1816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1843,7 +1842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1895,7 +1894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1921,7 +1920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -1947,7 +1946,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -1973,7 +1972,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -1999,7 +1998,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -2025,7 +2024,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>79</v>
       </c>
@@ -2051,7 +2050,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
@@ -2077,7 +2076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
@@ -2103,7 +2102,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -2129,7 +2128,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>78</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -2181,7 +2180,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>85</v>
       </c>
@@ -2233,1250 +2232,1262 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="1">
         <v>1</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="F33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="1">
         <v>2023</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="H33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="1">
         <v>3</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="F34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="1">
         <v>2023</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="H34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="D35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="1">
         <v>4</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="F35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="1">
         <v>2023</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="H35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="D36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="1">
         <v>4</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="F36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="1">
         <v>2023</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="H36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>2009</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3" t="s">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3" t="s">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="D48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="D49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="3">
+      <c r="D50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="2">
         <v>2005</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="3">
+      <c r="D51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="2">
         <v>2011</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="D52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" s="3">
+      <c r="D53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="D54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="2">
         <v>2009</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="3">
+      <c r="D55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" s="3">
+      <c r="D56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="2">
         <v>2007</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="D57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="2">
         <v>2003</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="D58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="2">
         <v>2001</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="D59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="D60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="D61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="D62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" s="3">
+      <c r="D63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G64" s="3">
+      <c r="D64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" s="3">
+      <c r="D65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="D66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" s="3">
+      <c r="D67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" s="3">
+      <c r="D68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G69" s="3">
+      <c r="D69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" s="3">
+      <c r="D70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" s="3">
+      <c r="D71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="D72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3" t="s">
+      <c r="E73" s="2"/>
+      <c r="F73" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3" t="s">
+      <c r="E74" s="2"/>
+      <c r="F74" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="2">
         <v>2024</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3" t="s">
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3" t="s">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="2">
         <v>2009</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3" t="s">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3" t="s">
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3" t="s">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3" t="s">
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3" t="s">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3" t="s">
+      <c r="E82" s="2"/>
+      <c r="F82" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="2">
         <v>2005</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3" t="s">
+      <c r="E83" s="2"/>
+      <c r="F83" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3" t="s">
+      <c r="E84" s="2"/>
+      <c r="F84" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="2">
         <v>2003</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3" t="s">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3" t="s">
+      <c r="E86" s="2"/>
+      <c r="F86" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="2">
         <v>2011</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3" t="s">
+      <c r="E87" s="2"/>
+      <c r="F87" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="2">
         <v>2007</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3" t="s">
+      <c r="E88" s="2"/>
+      <c r="F88" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3" t="s">
+      <c r="E89" s="2"/>
+      <c r="F89" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3" t="s">
+      <c r="E90" s="2"/>
+      <c r="F90" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3" t="s">
+      <c r="E91" s="2"/>
+      <c r="F91" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="2">
         <v>2019</v>
       </c>
     </row>
